--- a/Aanwezigheid Barroc-IT.xlsx
+++ b/Aanwezigheid Barroc-IT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Barroc-IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\New folder (4)\Barroc-IT-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9FDBAE-FEA6-4CF4-8659-D2E31BC59ACA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B5D56C-E0A7-4B2F-96AC-B74152F1121E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Aanwezigheid</t>
   </si>
@@ -997,7 +997,7 @@
   <dimension ref="A1:CM157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1006,7 @@
     <col min="2" max="2" width="28.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" style="1" customWidth="1"/>
@@ -1188,8 +1188,12 @@
       <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
@@ -1287,8 +1291,12 @@
       <c r="F4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
@@ -1386,8 +1394,12 @@
       <c r="F5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -1485,8 +1497,12 @@
       <c r="F6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
@@ -2000,19 +2016,19 @@
       </c>
       <c r="E18" s="23">
         <f>COUNTIF(E3:AQ3,"v")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="24">
         <f>COUNTIF(E4:AQ4,"v")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="24">
         <f>COUNTIF(E5:AQ5,"v")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="25">
         <f>COUNTIF(E6:AQ6,"v")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="29"/>
       <c r="R18"/>

--- a/Aanwezigheid Barroc-IT.xlsx
+++ b/Aanwezigheid Barroc-IT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\New folder (4)\Barroc-IT-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B5D56C-E0A7-4B2F-96AC-B74152F1121E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E5535-CF5C-4DCF-9611-F087A12A3804}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>Aanwezigheid</t>
   </si>
@@ -997,7 +997,7 @@
   <dimension ref="A1:CM157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,8 +1195,12 @@
         <v>4</v>
       </c>
       <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
@@ -1298,8 +1302,12 @@
         <v>4</v>
       </c>
       <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="J4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
@@ -1401,8 +1409,12 @@
         <v>4</v>
       </c>
       <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="J5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="N5" s="46"/>
@@ -1504,8 +1516,12 @@
         <v>4</v>
       </c>
       <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
@@ -2016,19 +2032,19 @@
       </c>
       <c r="E18" s="23">
         <f>COUNTIF(E3:AQ3,"v")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="24">
         <f>COUNTIF(E4:AQ4,"v")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="24">
         <f>COUNTIF(E5:AQ5,"v")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="25">
         <f>COUNTIF(E6:AQ6,"v")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="29"/>
       <c r="R18"/>
